--- a/In sổ 1 page.xlsx
+++ b/In sổ 1 page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Python\Print_MaintainDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF50A32-FC4F-4136-A2B0-FA555D8D8B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0505517-D703-4998-BF59-FD9FE5601604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{98AB4AC4-B2EE-4EF1-BB57-4DB9EE3E1AB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98AB4AC4-B2EE-4EF1-BB57-4DB9EE3E1AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Sheet" sheetId="1" r:id="rId1"/>
@@ -592,22 +592,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE92144C-9C32-457E-A9DF-93DFBD6ECB25}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" customWidth="1"/>
-    <col min="7" max="8" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -671,7 +671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -681,7 +681,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -691,7 +691,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -701,7 +701,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -711,7 +711,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -721,7 +721,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -731,7 +731,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -741,16 +741,6 @@
       <c r="G10" s="9"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
